--- a/scraped_data_yaktsa.tiara-hotels.xlsx
+++ b/scraped_data_yaktsa.tiara-hotels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Header Text</t>
   </si>
@@ -113,6 +113,63 @@
   </si>
   <si>
     <t>Westgate Resort Vacation Villas</t>
+  </si>
+  <si>
+    <t>Westgate Towers Resort</t>
+  </si>
+  <si>
+    <t>Westgate Town Center Resort</t>
+  </si>
+  <si>
+    <t>Westgate Resort</t>
+  </si>
+  <si>
+    <t>Quality Inn &amp; Suites By the Parks</t>
+  </si>
+  <si>
+    <t>Orbit One Vacation Villas</t>
+  </si>
+  <si>
+    <t>Galleria Palms Hotel</t>
+  </si>
+  <si>
+    <t>Wyndham Orlando Resort &amp; Conference Center Celebration Area</t>
+  </si>
+  <si>
+    <t>Comfort Inn &amp; Suites Kissimmee by the Parks</t>
+  </si>
+  <si>
+    <t>Oakwater Resort</t>
+  </si>
+  <si>
+    <t>Grand Lake &amp; Lifetime of Vacations Resort</t>
+  </si>
+  <si>
+    <t>Holiday Inn Club Vacations at Orange Lake Resort</t>
+  </si>
+  <si>
+    <t>Hilton Vacation Club Mystic Dunes Orlando</t>
+  </si>
+  <si>
+    <t>Liki Tiki Village Resort</t>
+  </si>
+  <si>
+    <t>Omni Orlando Resort at ChampionsGate</t>
+  </si>
+  <si>
+    <t>Margaritaville Resort Orlando</t>
+  </si>
+  <si>
+    <t>Summer Bay Orlando By Exploria Resorts</t>
+  </si>
+  <si>
+    <t>The Grove Resort &amp; Water Park Orlando</t>
+  </si>
+  <si>
+    <t>Comfort Inn &amp; Suites Maingate South</t>
+  </si>
+  <si>
+    <t>Encore Resort at Reunion</t>
   </si>
   <si>
     <t>Book Direct</t>
@@ -492,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,8 +606,11 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -563,8 +623,11 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -577,8 +640,11 @@
       <c r="G4" t="s">
         <v>30</v>
       </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -591,6 +657,9 @@
       <c r="G5" t="s">
         <v>31</v>
       </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="D6" t="s">
@@ -602,6 +671,9 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="D7" t="s">
@@ -610,6 +682,9 @@
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="D8" t="s">
@@ -618,6 +693,9 @@
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="D9" t="s">
@@ -625,6 +703,64 @@
       </c>
       <c r="E9" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/scraped_data_yaktsa.tiara-hotels.xlsx
+++ b/scraped_data_yaktsa.tiara-hotels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Header Text</t>
   </si>
@@ -43,133 +43,52 @@
     <t>Callouts</t>
   </si>
   <si>
-    <t>Westgate Vacation Villas Resort</t>
-  </si>
-  <si>
-    <t>As the premier Kissimmee Florida resort near Disney World, Westgate Vacation Villas Resort provides you all the comforts of a fully furnished home.</t>
-  </si>
-  <si>
-    <t>Florida vacation villas ranging from cozy studios to spacious two-bedroom villas with lofts that sleep up to 10 guests – all within minutes of Walt Disney World and Kissimmee's world-famous theme parks and attractions.</t>
-  </si>
-  <si>
-    <t>Accommodations</t>
-  </si>
-  <si>
-    <t>Specials</t>
-  </si>
-  <si>
-    <t>Water Park</t>
-  </si>
-  <si>
-    <t>Activities</t>
-  </si>
-  <si>
-    <t>Dining</t>
-  </si>
-  <si>
-    <t>Photos</t>
-  </si>
-  <si>
-    <t>Groups &amp; Meetings</t>
+    <t>OFFERS &amp; PROMOTIONS</t>
+  </si>
+  <si>
+    <t>There are great benefits in enrolling for NeuPass, if you still do not wish to continue, we will convert your current Taj Inner Circle Points to a Taj Experience Gift Card and email it to your registered email address.</t>
+  </si>
+  <si>
+    <t>Your Taj Inner Circle membership will cease to exist.</t>
+  </si>
+  <si>
+    <t>DINING</t>
+  </si>
+  <si>
+    <t>WEDDINGS</t>
+  </si>
+  <si>
+    <t>Meetings and events</t>
   </si>
   <si>
     <t>Contact Us</t>
   </si>
   <si>
-    <t>https://www.westgateresorts.com/hotels/florida/orlando/westgate-vacation-villas-resort/accommodations/</t>
-  </si>
-  <si>
-    <t>https://www.westgateresorts.com/hotels/florida/orlando/westgate-vacation-villas-resort/specials/</t>
-  </si>
-  <si>
-    <t>https://www.westgateresorts.com/hotels/florida/orlando/westgate-vacation-villas-resort/water-park/</t>
-  </si>
-  <si>
-    <t>https://www.westgateresorts.com/hotels/florida/orlando/westgate-vacation-villas-resort/activities/</t>
-  </si>
-  <si>
-    <t>https://www.westgateresorts.com/hotels/florida/orlando/westgate-vacation-villas-resort/dining/</t>
-  </si>
-  <si>
-    <t>https://www.westgateresorts.com/hotels/florida/orlando/westgate-vacation-villas-resort/photos/</t>
-  </si>
-  <si>
-    <t>https://www.westgateresorts.com/hotels/florida/orlando/westgate-vacation-villas-resort/groups-meetings/</t>
-  </si>
-  <si>
-    <t>https://www.westgateresorts.com/customer-service/</t>
-  </si>
-  <si>
-    <t>https://www.westgateresorts.com/hotels/florida/orlando/westgate-vacation-villas-resort/</t>
-  </si>
-  <si>
-    <t>Westgate Vacation Resort Villas</t>
-  </si>
-  <si>
-    <t>Westgate Villas Vacation Resort</t>
-  </si>
-  <si>
-    <t>Westgate Villas Resort Vacation</t>
-  </si>
-  <si>
-    <t>Westgate Resort Vacation Villas</t>
-  </si>
-  <si>
-    <t>Westgate Towers Resort</t>
-  </si>
-  <si>
-    <t>Westgate Town Center Resort</t>
-  </si>
-  <si>
-    <t>Westgate Resort</t>
-  </si>
-  <si>
-    <t>Quality Inn &amp; Suites By the Parks</t>
-  </si>
-  <si>
-    <t>Orbit One Vacation Villas</t>
-  </si>
-  <si>
-    <t>Galleria Palms Hotel</t>
-  </si>
-  <si>
-    <t>Wyndham Orlando Resort &amp; Conference Center Celebration Area</t>
-  </si>
-  <si>
-    <t>Comfort Inn &amp; Suites Kissimmee by the Parks</t>
-  </si>
-  <si>
-    <t>Oakwater Resort</t>
-  </si>
-  <si>
-    <t>Grand Lake &amp; Lifetime of Vacations Resort</t>
-  </si>
-  <si>
-    <t>Holiday Inn Club Vacations at Orange Lake Resort</t>
-  </si>
-  <si>
-    <t>Hilton Vacation Club Mystic Dunes Orlando</t>
-  </si>
-  <si>
-    <t>Liki Tiki Village Resort</t>
-  </si>
-  <si>
-    <t>Omni Orlando Resort at ChampionsGate</t>
-  </si>
-  <si>
-    <t>Margaritaville Resort Orlando</t>
-  </si>
-  <si>
-    <t>Summer Bay Orlando By Exploria Resorts</t>
-  </si>
-  <si>
-    <t>The Grove Resort &amp; Water Park Orlando</t>
-  </si>
-  <si>
-    <t>Comfort Inn &amp; Suites Maingate South</t>
-  </si>
-  <si>
-    <t>Encore Resort at Reunion</t>
+    <t>https://www.tajhotels.com/en-in/restaurants</t>
+  </si>
+  <si>
+    <t>https://www.tajhotels.com/en-in/wedding/</t>
+  </si>
+  <si>
+    <t>https://www.tajhotels.com/meetings</t>
+  </si>
+  <si>
+    <t>https://www.tajhotels.com/en-in/about-us/contact-us/reservations/</t>
+  </si>
+  <si>
+    <t>https://www.tajhotels.com/</t>
+  </si>
+  <si>
+    <t>OFFERS PROMOTIONS &amp;</t>
+  </si>
+  <si>
+    <t>&amp; OFFERS PROMOTIONS</t>
+  </si>
+  <si>
+    <t>&amp; PROMOTIONS OFFERS</t>
+  </si>
+  <si>
+    <t>PROMOTIONS OFFERS &amp;</t>
   </si>
   <si>
     <t>Book Direct</t>
@@ -549,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,19 +517,16 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -618,16 +534,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -635,16 +548,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -652,115 +562,15 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="H18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="H19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8">
-      <c r="H20" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -770,10 +580,6 @@
     <hyperlink ref="E3" r:id="rId3"/>
     <hyperlink ref="E4" r:id="rId4"/>
     <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7"/>
-    <hyperlink ref="E8" r:id="rId8"/>
-    <hyperlink ref="E9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
